--- a/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
+++ b/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>과목</t>
   </si>
@@ -30,6 +30,33 @@
   </si>
   <si>
     <t>중요도</t>
+  </si>
+  <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>����</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>todoaasdasd</t>
+  </si>
+  <si>
+    <t>진행</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>�Է����ּ���zz</t>
   </si>
 </sst>
 </file>
@@ -64,19 +91,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -100,6 +127,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
+++ b/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>과목</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>�Է����ּ���zz</t>
+  </si>
+  <si>
+    <t>�Է����ּ���</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>�Է����ּ���.zz</t>
+  </si>
+  <si>
+    <t>�Է����ּ���qq</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -152,7 +167,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -161,10 +176,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
+++ b/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="46">
   <si>
     <t>과목</t>
   </si>
@@ -72,6 +72,84 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>�Է����ּ���.www</t>
+  </si>
+  <si>
+    <t>�Է����ּ���qqq</t>
+  </si>
+  <si>
+    <t>�Է����ּ���ttt</t>
+  </si>
+  <si>
+    <t>�Է����ּ���aaa</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>입력해주세요</t>
+  </si>
+  <si>
+    <t>2월2일</t>
+  </si>
+  <si>
+    <t>1월1일</t>
+  </si>
+  <si>
+    <t>월일</t>
+  </si>
+  <si>
+    <t>3월3일</t>
+  </si>
+  <si>
+    <t>3월4일</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>2월3일</t>
+  </si>
+  <si>
+    <t>입력해주세요zz</t>
+  </si>
+  <si>
+    <t>3월2일</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>5월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요zzz</t>
+  </si>
+  <si>
+    <t>입력해주세요ss</t>
+  </si>
+  <si>
+    <t>입력해주세요asdasd</t>
+  </si>
+  <si>
+    <t>4월2일</t>
+  </si>
+  <si>
+    <t>1월3일</t>
+  </si>
+  <si>
+    <t>2월29일</t>
+  </si>
+  <si>
+    <t>입력해주세요gd</t>
+  </si>
+  <si>
+    <t>2월4일</t>
+  </si>
+  <si>
+    <t>2월5일</t>
   </si>
 </sst>
 </file>
@@ -147,19 +225,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -167,19 +245,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
+++ b/Subject_Dir/ToDolist_Dir/알고리즘.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="50">
   <si>
     <t>과목</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>2월5일</t>
+  </si>
+  <si>
+    <t>�غ�</t>
+  </si>
+  <si>
+    <t>�Է����ּ���ss</t>
+  </si>
+  <si>
+    <t>2��1��</t>
+  </si>
+  <si>
+    <t>2��3��</t>
   </si>
 </sst>
 </file>
@@ -245,19 +257,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
